--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t xml:space="preserve">As a player I want to move one space diagonally so the game can advance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am in a game with a player and it is my turn when I drag one of my pieces to a diagonally adjacent open square then the piece should be moved to that square.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN; 10/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am in a game with a player and it is my turn when I drag one of my pieces to an open square that is not diagonally adjacent, then the move will be reverted because it is invalid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given is is my turn in a game with a player and it is my turn when I make a valid simple move, then all of my pieces except the one I moved will not be moveable.</t>
   </si>
   <si>
     <t xml:space="preserve">As a player I want to submit my turn so my opponent can take their turn.</t>
@@ -257,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -270,6 +282,13 @@
       <right/>
       <top style="medium"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -298,7 +317,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -357,6 +376,30 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -555,10 +598,10 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C7" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topRight" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -828,56 +871,73 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" s="19" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
+      <c r="A18" s="0"/>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" s="19" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20"/>
+      <c r="B19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="8"/>
       <c r="E20" s="8"/>
@@ -885,9 +945,9 @@
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="8"/>
       <c r="E21" s="8"/>
@@ -897,7 +957,7 @@
     </row>
     <row r="22" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" s="8"/>
       <c r="E22" s="8"/>
@@ -907,7 +967,7 @@
     </row>
     <row r="23" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" s="8"/>
       <c r="E23" s="8"/>
@@ -915,9 +975,9 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
@@ -925,9 +985,9 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25" s="8"/>
       <c r="E25" s="8"/>
@@ -935,9 +995,9 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" s="8"/>
       <c r="E26" s="8"/>
@@ -945,9 +1005,9 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" s="8"/>
       <c r="E27" s="8"/>
@@ -957,7 +1017,7 @@
     </row>
     <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" s="8"/>
       <c r="E28" s="8"/>
@@ -965,9 +1025,9 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C29" s="8"/>
       <c r="E29" s="8"/>
@@ -977,7 +1037,7 @@
     </row>
     <row r="30" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C30" s="8"/>
       <c r="E30" s="8"/>
@@ -985,9 +1045,9 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C31" s="8"/>
       <c r="E31" s="8"/>
@@ -995,9 +1055,9 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C32" s="8"/>
       <c r="E32" s="8"/>
@@ -1005,9 +1065,9 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C33" s="8"/>
       <c r="E33" s="8"/>
@@ -1015,9 +1075,9 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C34" s="8"/>
       <c r="E34" s="8"/>
@@ -1027,7 +1087,7 @@
     </row>
     <row r="35" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C35" s="8"/>
       <c r="E35" s="8"/>
@@ -1035,9 +1095,9 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C36" s="8"/>
       <c r="E36" s="8"/>
@@ -1047,13 +1107,23 @@
     </row>
     <row r="37" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
